--- a/Bunnplate/Konvergensstudie.xlsx
+++ b/Bunnplate/Konvergensstudie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uiano-my.sharepoint.com/personal/idald_uia_no/Documents/Dokumenter/MAS309/Bunnplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A6FC9A5-BE91-44BE-9FD1-316DA2D6241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{3A6FC9A5-BE91-44BE-9FD1-316DA2D6241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{442589AA-CD5A-43F2-86BE-6C96FB0AD5B0}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{E9382C19-FCF0-4A75-9C16-E189F4710CB3}"/>
+    <workbookView minimized="1" xWindow="735" yWindow="735" windowWidth="14400" windowHeight="8183" xr2:uid="{E9382C19-FCF0-4A75-9C16-E189F4710CB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Konvergensstudie</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Vinkeljern 50x50x6</t>
+  </si>
+  <si>
+    <t>For stor nedbøyning</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -112,15 +115,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,6 +224,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>VInkeljern 70x70x7</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -191,17 +287,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Antall elementer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -228,42 +313,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$B$6:$B$9</c:f>
+              <c:f>'Ark1'!$F$6:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>631</c:v>
+                  <c:v>84277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>839</c:v>
+                  <c:v>123350</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1128</c:v>
+                  <c:v>215950</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1240</c:v>
+                  <c:v>248826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>407524</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>432148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$C$6:$C$9</c:f>
+              <c:f>'Ark1'!$G$6:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>65427</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98569</c:v>
+                  <c:v>442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>206967</c:v>
+                  <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>297259</c:v>
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,7 +374,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3988-4E52-BD60-C1939282DAC7}"/>
+              <c16:uniqueId val="{00000000-6792-4D5C-9C28-C68EB67E70F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -283,11 +386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1086302943"/>
-        <c:axId val="1086303423"/>
+        <c:axId val="1654724192"/>
+        <c:axId val="1654725632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1086302943"/>
+        <c:axId val="1654724192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -307,6 +410,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Antall elementer</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -344,12 +509,12 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1086303423"/>
+        <c:crossAx val="1654725632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1086303423"/>
+        <c:axId val="1654725632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -369,6 +534,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Maks VMS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -406,337 +633,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1086302943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="nb-NO"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Antall elementer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Ark1'!$F$6:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>438</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>930</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1044</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>880</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Ark1'!$G$6:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>84616</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>125526</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>294053</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>432472</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>432443</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C9ED-48F5-BA37-439293D1975D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1554993743"/>
-        <c:axId val="1554996143"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1554993743"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1554996143"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1554996143"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1554993743"/>
+        <c:crossAx val="1654724192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -832,46 +729,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1388,543 +1245,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>97632</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>688181</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Diagram 5">
+        <xdr:cNvPr id="2" name="Diagram 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707B6B8F-265D-C50A-12B1-89498D95CBCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A20CA2F5-B32B-9684-31B5-E46F21249CF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,42 +1278,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>502443</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>423863</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Diagram 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC5642E2-C1DF-1901-80F6-BC3DE2AD054E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2298,17 +1603,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11791004-8BF7-423E-AA9A-135A9BB01244}">
-  <dimension ref="A2:G10"/>
+  <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.06640625" customWidth="1"/>
     <col min="7" max="7" width="14.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2332,81 +1637,82 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>631</v>
-      </c>
-      <c r="C6">
-        <v>65427</v>
-      </c>
-      <c r="F6">
-        <v>354</v>
-      </c>
-      <c r="G6">
-        <v>84616</v>
+      <c r="F6" s="6">
+        <v>84277</v>
+      </c>
+      <c r="G6" s="7">
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>839</v>
-      </c>
-      <c r="C7">
-        <v>98569</v>
-      </c>
-      <c r="F7">
-        <v>438</v>
-      </c>
-      <c r="G7">
-        <v>125526</v>
+      <c r="F7" s="6">
+        <v>123350</v>
+      </c>
+      <c r="G7" s="7">
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8">
-        <v>1128</v>
+        <v>1025</v>
       </c>
       <c r="C8">
-        <v>206967</v>
-      </c>
-      <c r="F8">
-        <v>930</v>
-      </c>
-      <c r="G8">
-        <v>294053</v>
+        <v>195816</v>
+      </c>
+      <c r="F8" s="6">
+        <v>215950</v>
+      </c>
+      <c r="G8" s="7">
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>1240</v>
-      </c>
-      <c r="C9">
-        <v>297259</v>
-      </c>
-      <c r="F9">
-        <v>1044</v>
-      </c>
-      <c r="G9">
-        <v>432472</v>
+      <c r="F9" s="6">
+        <v>248826</v>
+      </c>
+      <c r="G9" s="7">
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="F10">
-        <v>880</v>
-      </c>
-      <c r="G10">
-        <v>432443</v>
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6">
+        <v>293153</v>
+      </c>
+      <c r="G10" s="7">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F11" s="6">
+        <v>407524</v>
+      </c>
+      <c r="G11" s="7">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="8">
+        <v>432148</v>
+      </c>
+      <c r="G12" s="9">
+        <v>982</v>
       </c>
     </row>
   </sheetData>

--- a/Bunnplate/Konvergensstudie.xlsx
+++ b/Bunnplate/Konvergensstudie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uiano-my.sharepoint.com/personal/idald_uia_no/Documents/Dokumenter/MAS309/Bunnplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{3A6FC9A5-BE91-44BE-9FD1-316DA2D6241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{442589AA-CD5A-43F2-86BE-6C96FB0AD5B0}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{3A6FC9A5-BE91-44BE-9FD1-316DA2D6241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B4408D9-0952-4301-B2E0-8E16874640F2}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="735" yWindow="735" windowWidth="14400" windowHeight="8183" xr2:uid="{E9382C19-FCF0-4A75-9C16-E189F4710CB3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{E9382C19-FCF0-4A75-9C16-E189F4710CB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -282,16 +282,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -371,7 +369,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6792-4D5C-9C28-C68EB67E70F2}"/>
@@ -1286,6 +1284,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
@@ -1605,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11791004-8BF7-423E-AA9A-135A9BB01244}">
   <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Bunnplate/Konvergensstudie.xlsx
+++ b/Bunnplate/Konvergensstudie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uiano-my.sharepoint.com/personal/idald_uia_no/Documents/Dokumenter/MAS309/Bunnplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{3A6FC9A5-BE91-44BE-9FD1-316DA2D6241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B4408D9-0952-4301-B2E0-8E16874640F2}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{3A6FC9A5-BE91-44BE-9FD1-316DA2D6241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F516D198-F04D-4501-B4ED-3D14456978D3}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{E9382C19-FCF0-4A75-9C16-E189F4710CB3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Konvergensstudie</t>
   </si>
@@ -47,19 +47,7 @@
     <t>Maks VMS</t>
   </si>
   <si>
-    <t>Vinkeljern 70x70x7</t>
-  </si>
-  <si>
-    <t>(Fineste)</t>
-  </si>
-  <si>
-    <t>(Groveste)</t>
-  </si>
-  <si>
-    <t>Vinkeljern 50x50x6</t>
-  </si>
-  <si>
-    <t>For stor nedbøyning</t>
+    <t>Vinkeljern 80x80x8</t>
   </si>
 </sst>
 </file>
@@ -181,17 +169,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,31 +214,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>VInkeljern 70x70x7</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -287,8 +252,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maks VMS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -311,60 +287,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$F$6:$F$12</c:f>
+              <c:f>'Ark1'!$B$6:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>84277</c:v>
+                  <c:v>6372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123350</c:v>
+                  <c:v>7078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215950</c:v>
+                  <c:v>9466</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>248826</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>293153</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>407524</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>432148</c:v>
+                  <c:v>14534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$G$6:$G$12</c:f>
+              <c:f>'Ark1'!$C$6:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>334</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>442</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>571</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>538</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>958</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>736</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>982</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -372,7 +330,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6792-4D5C-9C28-C68EB67E70F2}"/>
+              <c16:uniqueId val="{00000000-74AD-45EB-B840-6E1A2D015C2D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -384,11 +342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1654724192"/>
-        <c:axId val="1654725632"/>
+        <c:axId val="1825923951"/>
+        <c:axId val="1825923471"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1654724192"/>
+        <c:axId val="1825923951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,68 +366,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nb-NO" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Antall elementer</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="nb-NO" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="nb-NO"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -507,14 +403,15 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1654725632"/>
+        <c:crossAx val="1825923471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1654725632"/>
+        <c:axId val="1825923471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -532,68 +429,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nb-NO" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Maks VMS</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="nb-NO" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="nb-NO"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -631,7 +466,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1654724192"/>
+        <c:crossAx val="1825923951"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1247,23 +1082,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>688181</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200853</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>693668</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29817</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
+        <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A20CA2F5-B32B-9684-31B5-E46F21249CF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1044F47-5CD4-103C-8039-37DF39911DDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11791004-8BF7-423E-AA9A-135A9BB01244}">
-  <dimension ref="A2:G12"/>
+  <dimension ref="A2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1619,103 +1454,101 @@
     <col min="7" max="7" width="14.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="3">
+        <v>6372</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>1</v>
+      <c r="C6" s="11">
+        <v>168</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>2</v>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="3">
+        <v>7078</v>
       </c>
+      <c r="C7" s="4">
+        <v>169</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="3">
+        <v>9466</v>
       </c>
-      <c r="F6" s="6">
-        <v>84277</v>
+      <c r="C8" s="4">
+        <v>168</v>
       </c>
-      <c r="G6" s="7">
-        <v>334</v>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="5">
+        <v>14534</v>
       </c>
+      <c r="C9" s="6">
+        <v>170</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="F7" s="6">
-        <v>123350</v>
-      </c>
-      <c r="G7" s="7">
-        <v>442</v>
-      </c>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>1025</v>
-      </c>
-      <c r="C8">
-        <v>195816</v>
-      </c>
-      <c r="F8" s="6">
-        <v>215950</v>
-      </c>
-      <c r="G8" s="7">
-        <v>571</v>
-      </c>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="F9" s="6">
-        <v>248826</v>
-      </c>
-      <c r="G9" s="7">
-        <v>538</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="6">
-        <v>293153</v>
-      </c>
-      <c r="G10" s="7">
-        <v>958</v>
-      </c>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="F11" s="6">
-        <v>407524</v>
-      </c>
-      <c r="G11" s="7">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="8">
-        <v>432148</v>
-      </c>
-      <c r="G12" s="9">
-        <v>982</v>
-      </c>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
